--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H2">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I2">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J2">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N2">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O2">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P2">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q2">
-        <v>479.7911411081674</v>
+        <v>2569.184685546752</v>
       </c>
       <c r="R2">
-        <v>479.7911411081674</v>
+        <v>23122.66216992077</v>
       </c>
       <c r="S2">
-        <v>0.5380937817192754</v>
+        <v>0.7852611445777253</v>
       </c>
       <c r="T2">
-        <v>0.5380937817192754</v>
+        <v>0.8239944114311665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H3">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I3">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J3">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N3">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O3">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P3">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q3">
-        <v>1.091196987229085</v>
+        <v>6.443165417337999</v>
       </c>
       <c r="R3">
-        <v>1.091196987229085</v>
+        <v>57.988488756042</v>
       </c>
       <c r="S3">
-        <v>0.001223795654297842</v>
+        <v>0.001969328043556246</v>
       </c>
       <c r="T3">
-        <v>0.001223795654297842</v>
+        <v>0.002066465803599178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H4">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I4">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J4">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N4">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O4">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P4">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q4">
-        <v>5.011361937993779</v>
+        <v>86.71571552517899</v>
       </c>
       <c r="R4">
-        <v>5.011361937993779</v>
+        <v>780.441439726611</v>
       </c>
       <c r="S4">
-        <v>0.005620326149730166</v>
+        <v>0.02650431571122619</v>
       </c>
       <c r="T4">
-        <v>0.005620326149730166</v>
+        <v>0.02781164988954318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H5">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I5">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J5">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N5">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O5">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P5">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q5">
-        <v>1.898275174481673</v>
+        <v>19.99592216856</v>
       </c>
       <c r="R5">
-        <v>1.898275174481673</v>
+        <v>179.96329951704</v>
       </c>
       <c r="S5">
-        <v>0.002128947327000307</v>
+        <v>0.006111674578049638</v>
       </c>
       <c r="T5">
-        <v>0.002128947327000307</v>
+        <v>0.006413134957170125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H6">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I6">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J6">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N6">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O6">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P6">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q6">
-        <v>22.60598656924269</v>
+        <v>131.6961367806435</v>
       </c>
       <c r="R6">
-        <v>22.60598656924269</v>
+        <v>790.176820683861</v>
       </c>
       <c r="S6">
-        <v>0.02535299166725669</v>
+        <v>0.04025240368534452</v>
       </c>
       <c r="T6">
-        <v>0.02535299166725669</v>
+        <v>0.02815857791378957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H7">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I7">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J7">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N7">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O7">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P7">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q7">
-        <v>122.0671128406988</v>
+        <v>131.9919831161743</v>
       </c>
       <c r="R7">
-        <v>122.0671128406988</v>
+        <v>1187.927848045568</v>
       </c>
       <c r="S7">
-        <v>0.1369003067049063</v>
+        <v>0.0403428279484833</v>
       </c>
       <c r="T7">
-        <v>0.1369003067049063</v>
+        <v>0.04233275134064522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H8">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I8">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J8">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N8">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O8">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P8">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q8">
-        <v>0.2776192688007423</v>
+        <v>0.3310179239991111</v>
       </c>
       <c r="R8">
-        <v>0.2776192688007423</v>
+        <v>2.979161315992</v>
       </c>
       <c r="S8">
-        <v>0.0003113546487792551</v>
+        <v>0.0001011743201403862</v>
       </c>
       <c r="T8">
-        <v>0.0003113546487792551</v>
+        <v>0.0001061647770957223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H9">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I9">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J9">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N9">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O9">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P9">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q9">
-        <v>1.274976611193325</v>
+        <v>4.455023931870667</v>
       </c>
       <c r="R9">
-        <v>1.274976611193325</v>
+        <v>40.095215386836</v>
       </c>
       <c r="S9">
-        <v>0.001429907573399678</v>
+        <v>0.001361660456541849</v>
       </c>
       <c r="T9">
-        <v>0.001429907573399678</v>
+        <v>0.001428824810962283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H10">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I10">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J10">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N10">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O10">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P10">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q10">
-        <v>0.4829538315171009</v>
+        <v>1.02729143456</v>
       </c>
       <c r="R10">
-        <v>0.4829538315171009</v>
+        <v>9.24562291104</v>
       </c>
       <c r="S10">
-        <v>0.0005416407918591865</v>
+        <v>0.0003139875666609798</v>
       </c>
       <c r="T10">
-        <v>0.0005416407918591865</v>
+        <v>0.0003294751077065543</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H11">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I11">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J11">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N11">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O11">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P11">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q11">
-        <v>5.751351529854444</v>
+        <v>6.765895172972667</v>
       </c>
       <c r="R11">
-        <v>5.751351529854444</v>
+        <v>40.595371037836</v>
       </c>
       <c r="S11">
-        <v>0.006450236841698192</v>
+        <v>0.002067969117794565</v>
       </c>
       <c r="T11">
-        <v>0.006450236841698192</v>
+        <v>0.001446648254398041</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H12">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I12">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J12">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N12">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O12">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P12">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q12">
-        <v>236.3222308470442</v>
+        <v>285.903986047232</v>
       </c>
       <c r="R12">
-        <v>236.3222308470442</v>
+        <v>1715.423916283392</v>
       </c>
       <c r="S12">
-        <v>0.2650393306702447</v>
+        <v>0.08738542331572605</v>
       </c>
       <c r="T12">
-        <v>0.2650393306702447</v>
+        <v>0.0611304922359519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H13">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I13">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J13">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N13">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O13">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P13">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q13">
-        <v>0.5374715875744235</v>
+        <v>0.717008273458</v>
       </c>
       <c r="R13">
-        <v>0.5374715875744235</v>
+        <v>4.302049640748001</v>
       </c>
       <c r="S13">
-        <v>0.0006027833662301461</v>
+        <v>0.0002191507448470979</v>
       </c>
       <c r="T13">
-        <v>0.0006027833662301461</v>
+        <v>0.0001533069520985851</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H14">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I14">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J14">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N14">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O14">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P14">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q14">
-        <v>2.468357856781814</v>
+        <v>9.649897440639</v>
       </c>
       <c r="R14">
-        <v>2.468357856781814</v>
+        <v>57.899384643834</v>
       </c>
       <c r="S14">
-        <v>0.002768304580873391</v>
+        <v>0.002949453012048149</v>
       </c>
       <c r="T14">
-        <v>0.002768304580873391</v>
+        <v>0.002063290507867425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H15">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I15">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J15">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N15">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O15">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P15">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q15">
-        <v>0.9349998062884919</v>
+        <v>2.22518602296</v>
       </c>
       <c r="R15">
-        <v>0.9349998062884919</v>
+        <v>13.35111613776</v>
       </c>
       <c r="S15">
-        <v>0.001048617905929902</v>
+        <v>0.0006801193129936744</v>
       </c>
       <c r="T15">
-        <v>0.001048617905929902</v>
+        <v>0.0004757776160477631</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H16">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I16">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J16">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N16">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O16">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P16">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q16">
-        <v>11.1346307149455</v>
+        <v>14.6554082563335</v>
       </c>
       <c r="R16">
-        <v>11.1346307149455</v>
+        <v>58.62163302533401</v>
       </c>
       <c r="S16">
-        <v>0.01248767439851888</v>
+        <v>0.004479367608861948</v>
       </c>
       <c r="T16">
-        <v>0.01248767439851888</v>
+        <v>0.002089028401957985</v>
       </c>
     </row>
   </sheetData>
